--- a/stats_code/output/run5_centrality_predicts_recall/centrality_predicts_recall_results.xlsx
+++ b/stats_code/output/run5_centrality_predicts_recall/centrality_predicts_recall_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="21">
   <si>
     <t>Story</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>p_value</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>cohens_d</t>
   </si>
   <si>
     <t>Adventure</t>
@@ -425,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,19 +468,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -488,19 +506,28 @@
       <c r="I2">
         <v>1.537178195570904E-05</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0.1396661885342635</v>
+      </c>
+      <c r="K2">
+        <v>0.3055156296475548</v>
+      </c>
+      <c r="L2">
+        <v>1.190130995806203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>22</v>
@@ -517,19 +544,28 @@
       <c r="I3">
         <v>0.0001533453929408381</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0.1024865537729285</v>
+      </c>
+      <c r="K3">
+        <v>0.2713316280452533</v>
+      </c>
+      <c r="L3">
+        <v>0.9816199698259709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>45</v>
@@ -546,19 +582,28 @@
       <c r="I4">
         <v>4.984882717728824E-20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0.2821245005150286</v>
+      </c>
+      <c r="K4">
+        <v>0.3630310550405267</v>
+      </c>
+      <c r="L4">
+        <v>2.395679654533568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>45</v>
@@ -575,19 +620,28 @@
       <c r="I5">
         <v>2.134734395237408E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0.1000789410051721</v>
+      </c>
+      <c r="K5">
+        <v>0.217432170105939</v>
+      </c>
+      <c r="L5">
+        <v>0.8128527765774571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>49</v>
@@ -604,19 +658,28 @@
       <c r="I6">
         <v>6.151242085204013E-17</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>0.2587705125734576</v>
+      </c>
+      <c r="K6">
+        <v>0.3562907119163383</v>
+      </c>
+      <c r="L6">
+        <v>1.811585825821727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>49</v>
@@ -633,19 +696,28 @@
       <c r="I7">
         <v>1.052304941082082E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>0.07469403460601493</v>
+      </c>
+      <c r="K7">
+        <v>0.1778773939654137</v>
+      </c>
+      <c r="L7">
+        <v>0.7030880286751022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>22</v>
@@ -662,19 +734,28 @@
       <c r="I8">
         <v>1.932321757940011E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>0.1453536425156468</v>
+      </c>
+      <c r="K8">
+        <v>0.3229675932493894</v>
+      </c>
+      <c r="L8">
+        <v>1.169063593568157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>22</v>
@@ -691,19 +772,28 @@
       <c r="I9">
         <v>0.0001730097543601407</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>0.105314009811311</v>
+      </c>
+      <c r="K9">
+        <v>0.2823658577537704</v>
+      </c>
+      <c r="L9">
+        <v>0.9708321368335769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>45</v>
@@ -720,19 +810,28 @@
       <c r="I10">
         <v>6.066790284377667E-19</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0.2959133421952627</v>
+      </c>
+      <c r="K10">
+        <v>0.3875529844282573</v>
+      </c>
+      <c r="L10">
+        <v>2.240689852413353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>45</v>
@@ -749,19 +848,28 @@
       <c r="I11">
         <v>2.711109307969373E-06</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>0.1038455146002019</v>
+      </c>
+      <c r="K11">
+        <v>0.2281965424867813</v>
+      </c>
+      <c r="L11">
+        <v>0.8022167510550768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>49</v>
@@ -778,19 +886,28 @@
       <c r="I12">
         <v>5.147482488393019E-16</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>0.2732874337371852</v>
+      </c>
+      <c r="K12">
+        <v>0.383657283891013</v>
+      </c>
+      <c r="L12">
+        <v>1.709674829364208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>49</v>
@@ -807,19 +924,28 @@
       <c r="I13">
         <v>1.321067421776144E-05</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>0.07738850031369987</v>
+      </c>
+      <c r="K13">
+        <v>0.1868192002745164</v>
+      </c>
+      <c r="L13">
+        <v>0.6934919754496393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>18</v>
@@ -836,19 +962,28 @@
       <c r="I14">
         <v>1.158410240592609E-05</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>0.09564736942142016</v>
+      </c>
+      <c r="K14">
+        <v>0.1965748528008021</v>
+      </c>
+      <c r="L14">
+        <v>1.439832714080515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>18</v>
@@ -865,19 +1000,28 @@
       <c r="I15">
         <v>1.316431466387341E-07</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>0.1612029557957292</v>
+      </c>
+      <c r="K15">
+        <v>0.2657970442042708</v>
+      </c>
+      <c r="L15">
+        <v>2.030153975576786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>53</v>
@@ -894,19 +1038,28 @@
       <c r="I16">
         <v>4.457315609448691E-25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>0.197888259247866</v>
+      </c>
+      <c r="K16">
+        <v>0.2445645709408132</v>
+      </c>
+      <c r="L16">
+        <v>2.612783647543044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>53</v>
@@ -923,19 +1076,28 @@
       <c r="I17">
         <v>8.826671160118265E-20</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17">
+        <v>0.2029459314944518</v>
+      </c>
+      <c r="K17">
+        <v>0.2686767100149822</v>
+      </c>
+      <c r="L17">
+        <v>1.977692986582371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>55</v>
@@ -952,19 +1114,28 @@
       <c r="I18">
         <v>1.234567920997465E-26</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0.2387334079694585</v>
+      </c>
+      <c r="K18">
+        <v>0.2919211374850868</v>
+      </c>
+      <c r="L18">
+        <v>2.69716379710991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>55</v>
@@ -981,19 +1152,28 @@
       <c r="I19">
         <v>1.80210604721427E-30</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19">
+        <v>0.2238066821005551</v>
+      </c>
+      <c r="K19">
+        <v>0.2646296815358086</v>
+      </c>
+      <c r="L19">
+        <v>3.234520908805754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -1010,19 +1190,28 @@
       <c r="I20">
         <v>1.270538186222543E-05</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20">
+        <v>0.09687572602998906</v>
+      </c>
+      <c r="K20">
+        <v>0.200319279723125</v>
+      </c>
+      <c r="L20">
+        <v>1.428717345014694</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>18</v>
@@ -1039,19 +1228,28 @@
       <c r="I21">
         <v>2.744682282870497E-07</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21">
+        <v>0.1630506893066233</v>
+      </c>
+      <c r="K21">
+        <v>0.2766079749162251</v>
+      </c>
+      <c r="L21">
+        <v>1.925346391043182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>53</v>
@@ -1068,19 +1266,28 @@
       <c r="I22">
         <v>1.863425655924245E-24</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>0.2019713356423791</v>
+      </c>
+      <c r="K22">
+        <v>0.2513216917985693</v>
+      </c>
+      <c r="L22">
+        <v>2.53175543324899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>53</v>
@@ -1097,19 +1304,28 @@
       <c r="I23">
         <v>4.200430688111883E-19</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0.2088588995183886</v>
+      </c>
+      <c r="K23">
+        <v>0.2795381347584049</v>
+      </c>
+      <c r="L23">
+        <v>1.9046456076682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>55</v>
@@ -1126,19 +1342,28 @@
       <c r="I24">
         <v>1.297326864043227E-25</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0.24586766278543</v>
+      </c>
+      <c r="K24">
+        <v>0.3037590877207392</v>
+      </c>
+      <c r="L24">
+        <v>2.566613693345996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>55</v>
@@ -1154,6 +1379,15 @@
       </c>
       <c r="I25">
         <v>1.262785866787123E-29</v>
+      </c>
+      <c r="J25">
+        <v>0.2289960375576796</v>
+      </c>
+      <c r="K25">
+        <v>0.2726090795353127</v>
+      </c>
+      <c r="L25">
+        <v>3.109227236147525</v>
       </c>
     </row>
   </sheetData>
